--- a/bao_cao_9_04_12_2022.xlsx
+++ b/bao_cao_9_04_12_2022.xlsx
@@ -213,9 +213,6 @@
     <t>20/11/2022</t>
   </si>
   <si>
-    <t>Giao tiếp 1 số loại sensor thông dụng</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21/11/2022</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 03/12/2022</t>
+  </si>
+  <si>
+    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11</t>
   </si>
 </sst>
 </file>
@@ -746,6 +746,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,12 +821,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,70 +830,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,22 +1157,22 @@
       <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1201,10 +1201,10 @@
       <c r="C10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="43" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1221,7 @@
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
+      <c r="A12" s="45">
         <v>1</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1259,8 +1259,8 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1280,8 +1280,8 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1301,10 +1301,10 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="A15" s="68">
         <v>2</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1326,8 +1326,8 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1347,8 +1347,8 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1368,8 +1368,8 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1389,8 +1389,8 @@
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
@@ -1410,10 +1410,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="A20" s="58">
         <v>3</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1435,8 +1435,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="A22" s="58">
         <v>4</v>
       </c>
       <c r="B22" s="70" t="s">
@@ -1484,7 +1484,7 @@
       <c r="A23" s="73"/>
       <c r="B23" s="71"/>
       <c r="C23" s="36" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>50</v>
@@ -1502,16 +1502,16 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="72"/>
       <c r="C24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -1527,16 +1527,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="E25" s="37" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>59</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
@@ -1601,16 +1601,16 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="41"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="41"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2582,16 +2582,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2607,6 +2597,16 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
